--- a/teaching/traditional_assets/database/data/india/india_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/india/india_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.318</v>
+        <v>0.2285</v>
       </c>
       <c r="F2">
-        <v>0.45</v>
+        <v>0.164</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,88 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007310056339830264</v>
+        <v>0.003397303966033762</v>
       </c>
       <c r="J2">
-        <v>0.005484574092257945</v>
+        <v>0.002788745102350375</v>
       </c>
       <c r="K2">
-        <v>528.58</v>
+        <v>544.28</v>
       </c>
       <c r="L2">
-        <v>0.3519408748918037</v>
+        <v>0.3478271983640082</v>
       </c>
       <c r="M2">
-        <v>24.78</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001472974659842716</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.04688032085966173</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>24.78</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001472974659842716</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.04688032085966173</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>963</v>
+        <v>1349.6</v>
       </c>
       <c r="V2">
-        <v>0.05724271983166003</v>
+        <v>0.09601183785552693</v>
       </c>
       <c r="W2">
-        <v>0.1750208855472013</v>
+        <v>0.163594470046083</v>
       </c>
       <c r="X2">
-        <v>0.06053118418862838</v>
+        <v>0.05849451179760351</v>
       </c>
       <c r="Y2">
-        <v>0.1144897013585729</v>
+        <v>0.1050999582484795</v>
       </c>
       <c r="Z2">
-        <v>0.4068419959153304</v>
+        <v>0.2461046990117819</v>
       </c>
       <c r="AA2">
-        <v>0.002749457574978505</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05371310485946569</v>
+        <v>0.04998027871390719</v>
       </c>
       <c r="AC2">
-        <v>-0.05179792040793244</v>
+        <v>-0.04967108931316869</v>
       </c>
       <c r="AD2">
-        <v>4070.1</v>
+        <v>4136.3</v>
       </c>
       <c r="AE2">
-        <v>113.9051319160446</v>
+        <v>149.9694937697519</v>
       </c>
       <c r="AF2">
-        <v>4184.005131916045</v>
+        <v>4286.269493769752</v>
       </c>
       <c r="AG2">
-        <v>3221.005131916045</v>
+        <v>2936.669493769752</v>
       </c>
       <c r="AH2">
-        <v>0.1991709521917561</v>
+        <v>0.233674970823164</v>
       </c>
       <c r="AI2">
-        <v>0.5743153495549728</v>
+        <v>0.5307239310273503</v>
       </c>
       <c r="AJ2">
-        <v>0.1606958809444313</v>
+        <v>0.1728136833730804</v>
       </c>
       <c r="AK2">
-        <v>0.5094749481720579</v>
+        <v>0.4365710990393831</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>120.5598341232228</v>
+        <v>117.1424525630133</v>
       </c>
       <c r="AP2">
-        <v>95.40891978424304</v>
+        <v>83.16820996232657</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +716,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.318</v>
+        <v>0.297</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03838107352391391</v>
+        <v>0.0154063418587437</v>
       </c>
       <c r="J3">
-        <v>0.03838107352391391</v>
+        <v>0.0154063418587437</v>
       </c>
       <c r="K3">
-        <v>12.2</v>
+        <v>5.98</v>
       </c>
       <c r="L3">
-        <v>0.2198198198198198</v>
+        <v>0.1196</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,55 +758,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>109.6</v>
+        <v>146.7</v>
       </c>
       <c r="V3">
-        <v>2.128155339805825</v>
+        <v>2.916500994035785</v>
       </c>
       <c r="W3">
-        <v>0.1234817813765182</v>
+        <v>0.05259454705364996</v>
       </c>
       <c r="X3">
-        <v>0.06563133426974177</v>
+        <v>0.05849451179760351</v>
       </c>
       <c r="Y3">
-        <v>0.05785044710677645</v>
+        <v>-0.005899964743953552</v>
       </c>
       <c r="Z3">
-        <v>1.174621767259467</v>
+        <v>1.519830080149565</v>
       </c>
       <c r="AA3">
-        <v>0.0450832444119753</v>
+        <v>0.02341502178198603</v>
       </c>
       <c r="AB3">
-        <v>0.05432688139160442</v>
+        <v>0.04998027871390719</v>
       </c>
       <c r="AC3">
-        <v>-0.009243636979629113</v>
+        <v>-0.02656525693192116</v>
       </c>
       <c r="AD3">
-        <v>25.8</v>
+        <v>20.4</v>
       </c>
       <c r="AE3">
-        <v>4.44925209711389</v>
+        <v>2.998414535314076</v>
       </c>
       <c r="AF3">
-        <v>30.24925209711389</v>
+        <v>23.39841453531407</v>
       </c>
       <c r="AG3">
-        <v>-79.3507479028861</v>
+        <v>-123.3015854646859</v>
       </c>
       <c r="AH3">
-        <v>0.3700248176115341</v>
+        <v>0.3174887096669122</v>
       </c>
       <c r="AI3">
-        <v>0.2101383067742967</v>
+        <v>0.1688216608664906</v>
       </c>
       <c r="AJ3">
-        <v>2.849142442406841</v>
+        <v>1.689026131142485</v>
       </c>
       <c r="AK3">
-        <v>-2.310115739304651</v>
+        <v>15.21943896070054</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -818,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.543046357615895</v>
+        <v>14.89051094890511</v>
       </c>
       <c r="AP3">
-        <v>-26.27508208704838</v>
+        <v>-90.00115727349336</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +838,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,91 +847,88 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00803822606435327</v>
+        <v>0.007781787248309645</v>
       </c>
       <c r="J4">
-        <v>0.005663031828370183</v>
+        <v>0.005825700966123649</v>
       </c>
       <c r="K4">
-        <v>390.3</v>
+        <v>369.7</v>
       </c>
       <c r="L4">
-        <v>0.4598798161894662</v>
+        <v>0.437359517331125</v>
       </c>
       <c r="M4">
-        <v>20.4</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.001774190742898888</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.0522674865488086</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>20.4</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.001774190742898888</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.0522674865488086</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>594.2</v>
+        <v>425.4</v>
       </c>
       <c r="V4">
-        <v>0.05167765389365292</v>
+        <v>0.04795616981940342</v>
       </c>
       <c r="W4">
-        <v>0.2773790064672021</v>
+        <v>0.1863595120475854</v>
       </c>
       <c r="X4">
-        <v>0.05687486120549662</v>
+        <v>0.05211368738715745</v>
       </c>
       <c r="Y4">
-        <v>0.2205041452617055</v>
+        <v>0.134245824660428</v>
       </c>
       <c r="Z4">
-        <v>0.6597020886734036</v>
+        <v>0.2242168954651075</v>
       </c>
       <c r="AA4">
-        <v>0.003735913925399774</v>
+        <v>0.001306220584532322</v>
       </c>
       <c r="AB4">
-        <v>0.05313450725565657</v>
+        <v>0.04843462425646064</v>
       </c>
       <c r="AC4">
-        <v>-0.0493985933302568</v>
+        <v>-0.04712840367192832</v>
       </c>
       <c r="AD4">
-        <v>2338.3</v>
+        <v>1905.4</v>
       </c>
       <c r="AE4">
-        <v>43.88978769591689</v>
+        <v>42.11027619501929</v>
       </c>
       <c r="AF4">
-        <v>2382.189787695917</v>
+        <v>1947.510276195019</v>
       </c>
       <c r="AG4">
-        <v>1787.989787695917</v>
+        <v>1522.110276195019</v>
       </c>
       <c r="AH4">
-        <v>0.1716226866919527</v>
+        <v>0.1800231488192967</v>
       </c>
       <c r="AI4">
-        <v>0.5456242234943661</v>
+        <v>0.4621183891456067</v>
       </c>
       <c r="AJ4">
-        <v>0.1345750599883602</v>
+        <v>0.1464594158543496</v>
       </c>
       <c r="AK4">
-        <v>0.4740427988666226</v>
+        <v>0.4017277172695642</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -943,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>149.8910256410257</v>
+        <v>127.0266666666667</v>
       </c>
       <c r="AP4">
-        <v>114.6147299805075</v>
+        <v>101.4740184130013</v>
       </c>
     </row>
     <row r="5">
@@ -957,7 +951,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ujjivan Small Finance Bank Limited (NSEI:UJJIVANSFB)</t>
+          <t>AU Small Finance Bank Limited (BSE:540611)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -965,6 +959,9 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="F5">
+        <v>0.164</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -972,91 +969,88 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0134904020676434</v>
+        <v>-0.000355746682121268</v>
       </c>
       <c r="J5">
-        <v>0.01005779086537826</v>
+        <v>-0.0002674574658436536</v>
       </c>
       <c r="K5">
-        <v>41.9</v>
+        <v>113.6</v>
       </c>
       <c r="L5">
-        <v>0.1888237945020279</v>
+        <v>0.3256880733944954</v>
       </c>
       <c r="M5">
-        <v>0.64</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.0004894088858300833</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.0152744630071599</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.64</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.0004894088858300833</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.0152744630071599</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>19.9</v>
+        <v>588.3</v>
       </c>
       <c r="V5">
-        <v>0.01521755754377915</v>
+        <v>0.1643341992793095</v>
       </c>
       <c r="W5">
-        <v>0.1750208855472013</v>
+        <v>0.2282958199356913</v>
       </c>
       <c r="X5">
-        <v>0.06114601490135541</v>
+        <v>0.05674558327487197</v>
       </c>
       <c r="Y5">
-        <v>0.1138748706458459</v>
+        <v>0.1715502366608193</v>
       </c>
       <c r="Z5">
-        <v>0.27336595200472</v>
+        <v>0.2259110634385851</v>
       </c>
       <c r="AA5">
-        <v>0.002749457574978505</v>
+        <v>-6.042160053332882e-05</v>
       </c>
       <c r="AB5">
-        <v>0.05454737798291094</v>
+        <v>0.04961066771263536</v>
       </c>
       <c r="AC5">
-        <v>-0.05179792040793244</v>
+        <v>-0.04967108931316869</v>
       </c>
       <c r="AD5">
-        <v>491.2</v>
+        <v>1376.7</v>
       </c>
       <c r="AE5">
-        <v>22.23239890594965</v>
+        <v>47.57042221361949</v>
       </c>
       <c r="AF5">
-        <v>513.4323989059496</v>
+        <v>1424.270422213619</v>
       </c>
       <c r="AG5">
-        <v>493.5323989059497</v>
+        <v>835.9704222136195</v>
       </c>
       <c r="AH5">
-        <v>0.2819302974426217</v>
+        <v>0.2846166900893808</v>
       </c>
       <c r="AI5">
-        <v>0.6400843546604452</v>
+        <v>0.6805344502442608</v>
       </c>
       <c r="AJ5">
-        <v>0.2739970695651023</v>
+        <v>0.1893104512325247</v>
       </c>
       <c r="AK5">
-        <v>0.6309280970670824</v>
+        <v>0.5556206674485111</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1065,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>66.02150537634408</v>
+        <v>146.6134185303514</v>
       </c>
       <c r="AP5">
-        <v>66.33499985295022</v>
+        <v>89.02773399506064</v>
       </c>
     </row>
     <row r="6">
@@ -1079,7 +1073,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CSB Bank Limited (NSEI:CSBBANK)</t>
+          <t>CSB Bank Limited (BSE:542867)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1087,6 +1081,9 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.16</v>
+      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1100,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.68</v>
+        <v>12.4</v>
       </c>
       <c r="L6">
-        <v>0.02961325966850829</v>
+        <v>0.1371681415929203</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1127,55 +1124,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>23.3</v>
+        <v>86.5</v>
       </c>
       <c r="V6">
-        <v>0.04417061611374408</v>
+        <v>0.1669561860644663</v>
       </c>
       <c r="W6">
-        <v>0.02690763052208836</v>
+        <v>0.05703771849126035</v>
       </c>
       <c r="X6">
-        <v>0.05210307451950158</v>
+        <v>0.06128686938261257</v>
       </c>
       <c r="Y6">
-        <v>-0.02519544399741322</v>
+        <v>-0.004249150891352221</v>
       </c>
       <c r="Z6">
-        <v>0.7795004306632214</v>
+        <v>0.4657393096342092</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05210307451950158</v>
+        <v>0.05050480544957378</v>
       </c>
       <c r="AC6">
-        <v>-0.05210307451950158</v>
+        <v>-0.05050480544957378</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>296.7</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>296.7</v>
       </c>
       <c r="AG6">
-        <v>-23.3</v>
+        <v>210.2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.3641384388807069</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.511551724137931</v>
       </c>
       <c r="AJ6">
-        <v>-0.04621182070606902</v>
+        <v>0.2886173280241658</v>
       </c>
       <c r="AK6">
-        <v>-0.1200412158681092</v>
+        <v>0.4259371833839919</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1192,7 +1189,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AU Small Finance Bank Limited (BSE:540611)</t>
+          <t>Ujjivan Small Finance Bank Limited (BSE:542904)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1201,7 +1198,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.55</v>
+        <v>-0.298</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1210,91 +1207,88 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.003388498574878507</v>
+        <v>-0.008285176574727746</v>
       </c>
       <c r="J7">
-        <v>-0.002443917113739808</v>
+        <v>-0.006280222812871922</v>
       </c>
       <c r="K7">
-        <v>81.5</v>
+        <v>42.6</v>
       </c>
       <c r="L7">
-        <v>0.285664213109008</v>
+        <v>0.1849761181068172</v>
       </c>
       <c r="M7">
-        <v>3.74</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.00108777848874411</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.04588957055214724</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>3.74</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.00108777848874411</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.04588957055214724</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>216</v>
+        <v>102.7</v>
       </c>
       <c r="V7">
-        <v>0.06282357047292188</v>
+        <v>0.09896887347017443</v>
       </c>
       <c r="W7">
-        <v>0.2018325903912828</v>
+        <v>0.163594470046083</v>
       </c>
       <c r="X7">
-        <v>0.06053118418862838</v>
+        <v>0.06129015821006738</v>
       </c>
       <c r="Y7">
-        <v>0.1413014062026544</v>
+        <v>0.1023043118360156</v>
       </c>
       <c r="Z7">
-        <v>0.1995057888168894</v>
+        <v>0.2817847920433156</v>
       </c>
       <c r="AA7">
-        <v>-0.0004875756115797561</v>
+        <v>-0.001769671279310801</v>
       </c>
       <c r="AB7">
-        <v>0.05371310485946569</v>
+        <v>0.05050538096299727</v>
       </c>
       <c r="AC7">
-        <v>-0.05420068047104545</v>
+        <v>-0.05227505224230807</v>
       </c>
       <c r="AD7">
-        <v>1214.8</v>
+        <v>537.1</v>
       </c>
       <c r="AE7">
-        <v>43.33369321706419</v>
+        <v>57.29038082579901</v>
       </c>
       <c r="AF7">
-        <v>1258.133693217064</v>
+        <v>594.3903808257991</v>
       </c>
       <c r="AG7">
-        <v>1042.133693217064</v>
+        <v>491.6903808257991</v>
       </c>
       <c r="AH7">
-        <v>0.2678969969774916</v>
+        <v>0.3641896232027614</v>
       </c>
       <c r="AI7">
-        <v>0.7165857203046333</v>
+        <v>0.5658218215749333</v>
       </c>
       <c r="AJ7">
-        <v>0.2326018025833181</v>
+        <v>0.321494359445565</v>
       </c>
       <c r="AK7">
-        <v>0.676827231753088</v>
+        <v>0.5187754494800789</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1303,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>157.7662337662338</v>
+        <v>56.24083769633508</v>
       </c>
       <c r="AP7">
-        <v>135.3420380801382</v>
+        <v>51.48590375139257</v>
       </c>
     </row>
   </sheetData>
